--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13500"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
   <si>
     <t>#</t>
   </si>
@@ -34,6 +34,12 @@
     <t>描述</t>
   </si>
   <si>
+    <t>最大生命值</t>
+  </si>
+  <si>
+    <t>攻击伤害值</t>
+  </si>
+  <si>
     <t>位置</t>
   </si>
   <si>
@@ -43,12 +49,21 @@
     <t>体重</t>
   </si>
   <si>
+    <t>c预设物名</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
     <t>Desc</t>
   </si>
   <si>
+    <t>MaxHP</t>
+  </si>
+  <si>
+    <t>DamageValue</t>
+  </si>
+  <si>
     <t>Position</t>
   </si>
   <si>
@@ -58,16 +73,70 @@
     <t>Weight</t>
   </si>
   <si>
+    <t>PrefabName</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>米克尔</t>
+    <t>玩家Unit</t>
+  </si>
+  <si>
+    <t>你宇哥</t>
   </si>
   <si>
     <t>带有强力攻击技能</t>
+  </si>
+  <si>
+    <t>Knight</t>
+  </si>
+  <si>
+    <t>关卡怪物</t>
+  </si>
+  <si>
+    <t>弱鸡宝鱼</t>
+  </si>
+  <si>
+    <t>炮灰</t>
+  </si>
+  <si>
+    <t>Ninja</t>
+  </si>
+  <si>
+    <t>新兵宝鱼</t>
+  </si>
+  <si>
+    <t>精英宝鱼</t>
+  </si>
+  <si>
+    <t>大师宝鱼</t>
+  </si>
+  <si>
+    <t>英雄宝鱼</t>
+  </si>
+  <si>
+    <t>传奇宝鱼</t>
+  </si>
+  <si>
+    <t>半神宝鱼</t>
+  </si>
+  <si>
+    <t>圣灵宝鱼</t>
+  </si>
+  <si>
+    <t>神灵宝鱼</t>
+  </si>
+  <si>
+    <t>永生宝鱼</t>
+  </si>
+  <si>
+    <t>创世宝鱼</t>
+  </si>
+  <si>
+    <t>至尊宝鱼</t>
   </si>
 </sst>
 </file>
@@ -75,10 +144,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -102,6 +171,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -117,7 +193,100 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,99 +300,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,22 +321,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -268,6 +337,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -280,175 +427,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,11 +531,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,62 +612,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,152 +631,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -715,7 +784,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1065,24 +1140,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:J6"/>
+  <dimension ref="C2:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="M7" sqref="M7:M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
     <col min="3" max="4" width="12.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="28.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6.75" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="7" max="7" width="17.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="6.75" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:5">
@@ -1090,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:10">
+    <row r="3" spans="3:13">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1115,8 +1193,17 @@
       <c r="J3" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="K3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="3:10">
+    <row r="4" spans="3:13">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1125,46 +1212,64 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="3:10">
+    <row r="5" spans="3:13">
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:10">
+    <row r="6" s="1" customFormat="1" spans="3:13">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
@@ -1172,22 +1277,343 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="1">
+        <v>24</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="1">
+      <c r="K6" s="1">
         <v>178</v>
       </c>
-      <c r="J6" s="1">
+      <c r="L6" s="1">
         <v>68</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13">
+      <c r="C7" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="5">
+        <v>100</v>
+      </c>
+      <c r="I7" s="5">
+        <v>10</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13">
+      <c r="C8" s="1">
+        <v>1003</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="5">
+        <v>200</v>
+      </c>
+      <c r="I8" s="5">
+        <v>20</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13">
+      <c r="C9" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="5">
+        <v>300</v>
+      </c>
+      <c r="I9" s="5">
+        <v>30</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13">
+      <c r="C10" s="1">
+        <v>1005</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="5">
+        <v>400</v>
+      </c>
+      <c r="I10" s="5">
+        <v>40</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13">
+      <c r="C11" s="5">
+        <v>1006</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="5">
+        <v>500</v>
+      </c>
+      <c r="I11" s="5">
+        <v>50</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13">
+      <c r="C12" s="1">
+        <v>1007</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="5">
+        <v>600</v>
+      </c>
+      <c r="I12" s="5">
+        <v>60</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13">
+      <c r="C13" s="5">
+        <v>1008</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="5">
+        <v>700</v>
+      </c>
+      <c r="I13" s="5">
+        <v>70</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13">
+      <c r="C14" s="1">
+        <v>1009</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="5">
+        <v>800</v>
+      </c>
+      <c r="I14" s="5">
+        <v>80</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13">
+      <c r="C15" s="5">
+        <v>1010</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="5">
+        <v>900</v>
+      </c>
+      <c r="I15" s="5">
+        <v>90</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13">
+      <c r="C16" s="1">
+        <v>1011</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1000</v>
+      </c>
+      <c r="I16" s="5">
+        <v>100</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13">
+      <c r="C17" s="5">
+        <v>1012</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1100</v>
+      </c>
+      <c r="I17" s="5">
+        <v>110</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13">
+      <c r="C18" s="1">
+        <v>1013</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1200</v>
+      </c>
+      <c r="I18" s="5">
+        <v>120</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -144,10 +144,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -171,6 +171,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -185,6 +193,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -199,8 +222,86 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,113 +315,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -337,25 +337,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,25 +463,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,127 +481,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,6 +565,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -574,7 +585,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,166 +628,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -785,9 +785,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1143,7 +1140,7 @@
   <dimension ref="C2:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7:M18"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1326,7 +1323,7 @@
       <c r="I7" s="5">
         <v>10</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1352,7 +1349,7 @@
       <c r="I8" s="5">
         <v>20</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1378,7 +1375,7 @@
       <c r="I9" s="5">
         <v>30</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1404,7 +1401,7 @@
       <c r="I10" s="5">
         <v>40</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1430,7 +1427,7 @@
       <c r="I11" s="5">
         <v>50</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1456,7 +1453,7 @@
       <c r="I12" s="5">
         <v>60</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="M12" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1482,7 +1479,7 @@
       <c r="I13" s="5">
         <v>70</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1508,7 +1505,7 @@
       <c r="I14" s="5">
         <v>80</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="M14" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1534,7 +1531,7 @@
       <c r="I15" s="5">
         <v>90</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1560,7 +1557,7 @@
       <c r="I16" s="5">
         <v>100</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="M16" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1586,7 +1583,7 @@
       <c r="I17" s="5">
         <v>110</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="M17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1612,7 +1609,7 @@
       <c r="I18" s="5">
         <v>120</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="M18" s="5" t="s">
         <v>29</v>
       </c>
     </row>

--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -144,9 +144,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -171,6 +171,125 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -179,88 +298,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -269,21 +306,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -294,29 +316,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,13 +337,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,19 +481,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,145 +517,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,6 +546,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -563,15 +581,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -581,11 +590,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,174 +620,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1140,7 +1140,7 @@
   <dimension ref="C2:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1321,7 +1321,7 @@
         <v>100</v>
       </c>
       <c r="I7" s="5">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>29</v>
@@ -1347,7 +1347,7 @@
         <v>200</v>
       </c>
       <c r="I8" s="5">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>29</v>
@@ -1373,7 +1373,7 @@
         <v>300</v>
       </c>
       <c r="I9" s="5">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>29</v>
@@ -1399,7 +1399,7 @@
         <v>400</v>
       </c>
       <c r="I10" s="5">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>29</v>
@@ -1425,7 +1425,7 @@
         <v>500</v>
       </c>
       <c r="I11" s="5">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>29</v>
@@ -1451,7 +1451,7 @@
         <v>600</v>
       </c>
       <c r="I12" s="5">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>29</v>
@@ -1477,7 +1477,7 @@
         <v>700</v>
       </c>
       <c r="I13" s="5">
-        <v>70</v>
+        <v>700</v>
       </c>
       <c r="M13" s="5" t="s">
         <v>29</v>
@@ -1503,7 +1503,7 @@
         <v>800</v>
       </c>
       <c r="I14" s="5">
-        <v>80</v>
+        <v>800</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>29</v>
@@ -1529,7 +1529,7 @@
         <v>900</v>
       </c>
       <c r="I15" s="5">
-        <v>90</v>
+        <v>900</v>
       </c>
       <c r="M15" s="5" t="s">
         <v>29</v>
@@ -1555,7 +1555,7 @@
         <v>1000</v>
       </c>
       <c r="I16" s="5">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="M16" s="5" t="s">
         <v>29</v>
@@ -1581,7 +1581,7 @@
         <v>1100</v>
       </c>
       <c r="I17" s="5">
-        <v>110</v>
+        <v>1100</v>
       </c>
       <c r="M17" s="5" t="s">
         <v>29</v>
@@ -1607,7 +1607,7 @@
         <v>1200</v>
       </c>
       <c r="I18" s="5">
-        <v>120</v>
+        <v>1200</v>
       </c>
       <c r="M18" s="5" t="s">
         <v>29</v>
